--- a/8/1/2/4/Flujos netos 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/4/Flujos netos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Serie</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7629,7 +7632,7 @@
         <v>103</v>
       </c>
       <c r="B74">
-        <v>-1858</v>
+        <v>-1857</v>
       </c>
       <c r="C74">
         <v>-1794</v>
@@ -7638,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>-64</v>
+        <v>-63</v>
       </c>
       <c r="F74">
-        <v>233</v>
+        <v>2035</v>
       </c>
       <c r="G74">
         <v>1197</v>
@@ -7659,10 +7662,10 @@
         <v>-32</v>
       </c>
       <c r="L74">
-        <v>-3491</v>
+        <v>-3485</v>
       </c>
       <c r="M74">
-        <v>-421</v>
+        <v>-415</v>
       </c>
       <c r="N74">
         <v>-186</v>
@@ -7674,49 +7677,144 @@
         <v>-2408</v>
       </c>
       <c r="Q74">
-        <v>1179</v>
+        <v>958</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
       <c r="S74">
-        <v>1492</v>
+        <v>1243</v>
       </c>
       <c r="T74">
         <v>-280</v>
       </c>
       <c r="U74">
-        <v>-33</v>
+        <v>-5</v>
       </c>
       <c r="V74">
-        <v>1347</v>
+        <v>3364</v>
       </c>
       <c r="W74">
-        <v>1271</v>
+        <v>1896</v>
       </c>
       <c r="X74">
-        <v>98</v>
+        <v>1694</v>
       </c>
       <c r="Y74">
         <v>3</v>
       </c>
       <c r="Z74">
-        <v>-24</v>
+        <v>-229</v>
       </c>
       <c r="AA74">
-        <v>-724</v>
+        <v>-1096</v>
       </c>
       <c r="AB74">
-        <v>-2180</v>
+        <v>-1988</v>
       </c>
       <c r="AC74">
-        <v>1143</v>
+        <v>713</v>
       </c>
       <c r="AD74">
         <v>80</v>
       </c>
       <c r="AE74">
-        <v>234</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75">
+        <v>-8496</v>
+      </c>
+      <c r="C75">
+        <v>-8638</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>142</v>
+      </c>
+      <c r="F75">
+        <v>2614</v>
+      </c>
+      <c r="G75">
+        <v>4772</v>
+      </c>
+      <c r="H75">
+        <v>4446</v>
+      </c>
+      <c r="I75">
+        <v>248</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>78</v>
+      </c>
+      <c r="L75">
+        <v>2930</v>
+      </c>
+      <c r="M75">
+        <v>-248</v>
+      </c>
+      <c r="N75">
+        <v>829</v>
+      </c>
+      <c r="O75">
+        <v>102</v>
+      </c>
+      <c r="P75">
+        <v>2247</v>
+      </c>
+      <c r="Q75">
+        <v>-6622</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>-6609</v>
+      </c>
+      <c r="T75">
+        <v>-121</v>
+      </c>
+      <c r="U75">
+        <v>108</v>
+      </c>
+      <c r="V75">
+        <v>1534</v>
+      </c>
+      <c r="W75">
+        <v>61</v>
+      </c>
+      <c r="X75">
+        <v>1474</v>
+      </c>
+      <c r="Y75">
+        <v>-22</v>
+      </c>
+      <c r="Z75">
+        <v>21</v>
+      </c>
+      <c r="AA75">
+        <v>1087</v>
+      </c>
+      <c r="AB75">
+        <v>-3249</v>
+      </c>
+      <c r="AC75">
+        <v>982</v>
+      </c>
+      <c r="AD75">
+        <v>116</v>
+      </c>
+      <c r="AE75">
+        <v>3238</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/2/4/Flujos netos 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/4/Flujos netos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Serie</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE75"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7817,6 +7820,101 @@
         <v>3238</v>
       </c>
     </row>
+    <row r="76" spans="1:31">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76">
+        <v>-11817</v>
+      </c>
+      <c r="C76">
+        <v>-11503</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>-314</v>
+      </c>
+      <c r="F76">
+        <v>7583</v>
+      </c>
+      <c r="G76">
+        <v>6273</v>
+      </c>
+      <c r="H76">
+        <v>8675</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>-2403</v>
+      </c>
+      <c r="L76">
+        <v>-754</v>
+      </c>
+      <c r="M76">
+        <v>-223</v>
+      </c>
+      <c r="N76">
+        <v>-1464</v>
+      </c>
+      <c r="O76">
+        <v>248</v>
+      </c>
+      <c r="P76">
+        <v>685</v>
+      </c>
+      <c r="Q76">
+        <v>-818</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>-717</v>
+      </c>
+      <c r="T76">
+        <v>-31</v>
+      </c>
+      <c r="U76">
+        <v>-70</v>
+      </c>
+      <c r="V76">
+        <v>2883</v>
+      </c>
+      <c r="W76">
+        <v>624</v>
+      </c>
+      <c r="X76">
+        <v>2316</v>
+      </c>
+      <c r="Y76">
+        <v>5</v>
+      </c>
+      <c r="Z76">
+        <v>-62</v>
+      </c>
+      <c r="AA76">
+        <v>-3192</v>
+      </c>
+      <c r="AB76">
+        <v>-57</v>
+      </c>
+      <c r="AC76">
+        <v>-3461</v>
+      </c>
+      <c r="AD76">
+        <v>41</v>
+      </c>
+      <c r="AE76">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
